--- a/src/main/resources/script/db/init-data/hrds_code_repo/hzero_platform/hzero-platform-lov.xlsx
+++ b/src/main/resources/script/db/init-data/hrds_code_repo/hzero_platform/hzero-platform-lov.xlsx
@@ -26,7 +26,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="336" uniqueCount="170">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="362" uniqueCount="176">
   <si>
     <r>
       <rPr>
@@ -1995,7 +1995,7 @@
     <t>公式=外键引用</t>
   </si>
   <si>
-    <t>2020-06-17</t>
+    <t>2020-06-18</t>
   </si>
   <si>
     <t>hzero</t>
@@ -2064,13 +2064,16 @@
     <t>hpfm_lov-8</t>
   </si>
   <si>
-    <t>RDUDM.AUTH_LEVEL</t>
+    <t>RDUCM.ACCESS_LEVEL</t>
   </si>
   <si>
     <t>IDP</t>
   </si>
   <si>
-    <t>权限层级</t>
+    <t>成员访问权限级别</t>
+  </si>
+  <si>
+    <t/>
   </si>
   <si>
     <t>0</t>
@@ -2082,64 +2085,55 @@
     <t>hpfm_lov-9</t>
   </si>
   <si>
-    <t>RDUDM.AUTH_MODE</t>
-  </si>
-  <si>
-    <t>授权模式</t>
+    <t>RDUCM.APPLICANT_TYPE</t>
+  </si>
+  <si>
+    <t>成员申请类型</t>
   </si>
   <si>
     <t>hpfm_lov-10</t>
   </si>
   <si>
-    <t>RDUDM.OPERATE_TYPE</t>
+    <t>RDUCM.APPROVAL_STATE</t>
+  </si>
+  <si>
+    <t>成员审批状态</t>
+  </si>
+  <si>
+    <t>hpfm_lov-11</t>
+  </si>
+  <si>
+    <t>RDUCM.OPERATION_OP_TYPE</t>
   </si>
   <si>
     <t>操作类型</t>
   </si>
   <si>
-    <t>hpfm_lov-11</t>
-  </si>
-  <si>
-    <t>RDUDM.PROCESS_STATUS</t>
-  </si>
-  <si>
-    <t>处理状态</t>
-  </si>
-  <si>
     <t>hpfm_lov-12</t>
   </si>
   <si>
-    <t>RDUDM.SCAN_STATUS</t>
-  </si>
-  <si>
-    <t>扫描状态</t>
+    <t>RDUCM.OP_MM_EVENT_TYPE</t>
+  </si>
+  <si>
+    <t>操作日志成员管理事件类型</t>
   </si>
   <si>
     <t>hpfm_lov-13</t>
   </si>
   <si>
-    <t>RDUDM.SERVER_TYPE</t>
-  </si>
-  <si>
-    <t>服务器类型</t>
+    <t>RDUCM.PT_BRANCH_ACCESS_LEVEL</t>
+  </si>
+  <si>
+    <t>保护分支权限访问级别</t>
   </si>
   <si>
     <t>hpfm_lov-14</t>
   </si>
   <si>
-    <t>RDUDM.USED_STATUS</t>
-  </si>
-  <si>
-    <t>服务器使用状态</t>
-  </si>
-  <si>
-    <t>hpfm_lov-15</t>
-  </si>
-  <si>
-    <t>RDUDM.USER_MANAGE_MODE</t>
-  </si>
-  <si>
-    <t>用户管理方式</t>
+    <t>RDUCM.PT_TAG_ACCESS_LEVEL</t>
+  </si>
+  <si>
+    <t>保护标记权限访问级别</t>
   </si>
   <si>
     <t>LOV独立值集表</t>
@@ -2184,100 +2178,124 @@
     <t>*</t>
   </si>
   <si>
-    <t>rw</t>
-  </si>
-  <si>
-    <t>读写</t>
-  </si>
-  <si>
-    <t>r</t>
-  </si>
-  <si>
-    <t>只读</t>
+    <t>L10</t>
+  </si>
+  <si>
+    <t>Guest</t>
+  </si>
+  <si>
+    <t>L20</t>
+  </si>
+  <si>
+    <t>Reporter</t>
   </si>
   <si>
     <t>2</t>
   </si>
   <si>
-    <t>privateKey</t>
-  </si>
-  <si>
-    <t>私钥认证</t>
-  </si>
-  <si>
-    <t>passwd</t>
-  </si>
-  <si>
-    <t>密码认证</t>
-  </si>
-  <si>
-    <t>create</t>
-  </si>
-  <si>
-    <t>分配</t>
-  </si>
-  <si>
-    <t>update</t>
-  </si>
-  <si>
-    <t>更新</t>
-  </si>
-  <si>
-    <t>revoke</t>
-  </si>
-  <si>
-    <t>回收</t>
-  </si>
-  <si>
-    <t>Y</t>
-  </si>
-  <si>
-    <t>已处理</t>
-  </si>
-  <si>
-    <t>N</t>
-  </si>
-  <si>
-    <t>未处理</t>
-  </si>
-  <si>
-    <t>成功</t>
-  </si>
-  <si>
-    <t>失败</t>
-  </si>
-  <si>
-    <t>Centos</t>
-  </si>
-  <si>
-    <t>Ubuntu</t>
-  </si>
-  <si>
-    <t>已使用</t>
-  </si>
-  <si>
-    <t>未使用</t>
-  </si>
-  <si>
-    <t>svn</t>
-  </si>
-  <si>
-    <t>SVN配置文件</t>
-  </si>
-  <si>
-    <t>http</t>
-  </si>
-  <si>
-    <t>HTTP配置文件</t>
-  </si>
-  <si>
-    <t>mysql</t>
-  </si>
-  <si>
-    <t>MYSQL数据库</t>
+    <t>L30</t>
+  </si>
+  <si>
+    <t>Developer</t>
   </si>
   <si>
     <t>3</t>
+  </si>
+  <si>
+    <t>L40</t>
+  </si>
+  <si>
+    <t>Maintainer</t>
+  </si>
+  <si>
+    <t>4</t>
+  </si>
+  <si>
+    <t>L50</t>
+  </si>
+  <si>
+    <t>Owner</t>
+  </si>
+  <si>
+    <t>5</t>
+  </si>
+  <si>
+    <t>MEMBER_JOIN</t>
+  </si>
+  <si>
+    <t>新成员</t>
+  </si>
+  <si>
+    <t>MEMBER_PERMISSION_CHANGE</t>
+  </si>
+  <si>
+    <t>权限变更</t>
+  </si>
+  <si>
+    <t>PENDING</t>
+  </si>
+  <si>
+    <t>待审批</t>
+  </si>
+  <si>
+    <t>APPROVED</t>
+  </si>
+  <si>
+    <t>通过</t>
+  </si>
+  <si>
+    <t>REJECTED</t>
+  </si>
+  <si>
+    <t>不通过</t>
+  </si>
+  <si>
+    <t>MEMBER_MANAGEMENT</t>
+  </si>
+  <si>
+    <t>成员管理</t>
+  </si>
+  <si>
+    <t>ADD_MEMBER</t>
+  </si>
+  <si>
+    <t>添加成员</t>
+  </si>
+  <si>
+    <t>UPDATE_MEMBER</t>
+  </si>
+  <si>
+    <t>更新成员</t>
+  </si>
+  <si>
+    <t>REMOVE_MEMBER</t>
+  </si>
+  <si>
+    <t>移除成员</t>
+  </si>
+  <si>
+    <t>REMOVE_EXPIRED_MEMBER</t>
+  </si>
+  <si>
+    <t>移除过期成员</t>
+  </si>
+  <si>
+    <t>SYNC_MEMBER</t>
+  </si>
+  <si>
+    <t>同步成员</t>
+  </si>
+  <si>
+    <t>L0</t>
+  </si>
+  <si>
+    <t>任何人均不允许</t>
+  </si>
+  <si>
+    <t>Developers + Maintainers</t>
+  </si>
+  <si>
+    <t>Maintainers</t>
   </si>
   <si>
     <t>值集查询视图头表</t>
@@ -3431,7 +3449,7 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1:V39"/>
+  <dimension ref="A1:V42"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -3546,260 +3564,269 @@
       <c r="J8" t="s">
         <v>75</v>
       </c>
+      <c r="K8" t="s">
+        <v>76</v>
+      </c>
+      <c r="L8" t="s">
+        <v>76</v>
+      </c>
       <c r="M8" t="s">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="T8" t="s">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="U8" t="s">
-        <v>77</v>
+        <v>78</v>
       </c>
     </row>
     <row r="9">
       <c r="E9" t="s">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="F9" t="s">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="G9" t="s">
         <v>74</v>
       </c>
       <c r="I9" t="s">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="J9" t="s">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="M9" t="s">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="T9" t="s">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="U9" t="s">
-        <v>77</v>
+        <v>78</v>
       </c>
     </row>
     <row r="10">
       <c r="E10" t="s">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="F10" t="s">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="G10" t="s">
         <v>74</v>
       </c>
       <c r="I10" t="s">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="J10" t="s">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="M10" t="s">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="T10" t="s">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="U10" t="s">
-        <v>77</v>
+        <v>78</v>
       </c>
     </row>
     <row r="11">
       <c r="E11" t="s">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="F11" t="s">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c r="G11" t="s">
         <v>74</v>
       </c>
       <c r="I11" t="s">
-        <v>86</v>
+        <v>87</v>
       </c>
       <c r="J11" t="s">
-        <v>86</v>
+        <v>87</v>
       </c>
       <c r="M11" t="s">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="T11" t="s">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="U11" t="s">
-        <v>77</v>
+        <v>78</v>
       </c>
     </row>
     <row r="12">
       <c r="E12" t="s">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="F12" t="s">
-        <v>88</v>
+        <v>89</v>
       </c>
       <c r="G12" t="s">
         <v>74</v>
       </c>
       <c r="I12" t="s">
-        <v>89</v>
+        <v>90</v>
       </c>
       <c r="J12" t="s">
-        <v>89</v>
+        <v>90</v>
       </c>
       <c r="M12" t="s">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="T12" t="s">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="U12" t="s">
-        <v>77</v>
+        <v>78</v>
       </c>
     </row>
     <row r="13">
       <c r="E13" t="s">
-        <v>90</v>
+        <v>91</v>
       </c>
       <c r="F13" t="s">
-        <v>91</v>
+        <v>92</v>
       </c>
       <c r="G13" t="s">
         <v>74</v>
       </c>
       <c r="I13" t="s">
-        <v>92</v>
+        <v>93</v>
       </c>
       <c r="J13" t="s">
-        <v>92</v>
+        <v>93</v>
       </c>
       <c r="M13" t="s">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="T13" t="s">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="U13" t="s">
-        <v>77</v>
+        <v>78</v>
       </c>
     </row>
     <row r="14">
       <c r="E14" t="s">
-        <v>93</v>
+        <v>94</v>
       </c>
       <c r="F14" t="s">
-        <v>94</v>
+        <v>95</v>
       </c>
       <c r="G14" t="s">
         <v>74</v>
       </c>
       <c r="I14" t="s">
-        <v>95</v>
+        <v>96</v>
       </c>
       <c r="J14" t="s">
-        <v>95</v>
+        <v>96</v>
       </c>
       <c r="M14" t="s">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="T14" t="s">
+        <v>78</v>
+      </c>
+      <c r="U14" t="s">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" t="s">
+        <v>50</v>
+      </c>
+      <c r="B16" t="s">
+        <v>51</v>
+      </c>
+      <c r="C16" t="s">
+        <v>97</v>
+      </c>
+      <c r="D16" t="s" s="43">
+        <v>98</v>
+      </c>
+      <c r="E16" t="s" s="44">
+        <v>99</v>
+      </c>
+      <c r="F16" t="s" s="45">
+        <v>100</v>
+      </c>
+      <c r="G16" t="s">
+        <v>101</v>
+      </c>
+      <c r="H16" t="s" s="46">
+        <v>102</v>
+      </c>
+      <c r="I16" t="s">
+        <v>103</v>
+      </c>
+      <c r="J16" t="s">
+        <v>104</v>
+      </c>
+      <c r="K16" t="s">
+        <v>60</v>
+      </c>
+      <c r="L16" t="s">
+        <v>61</v>
+      </c>
+      <c r="M16" t="s" s="47">
+        <v>62</v>
+      </c>
+      <c r="N16" t="s">
+        <v>105</v>
+      </c>
+      <c r="O16" t="s">
+        <v>106</v>
+      </c>
+      <c r="P16" t="s" s="48">
+        <v>107</v>
+      </c>
+      <c r="Q16" t="s">
+        <v>108</v>
+      </c>
+      <c r="R16" t="s">
+        <v>109</v>
+      </c>
+      <c r="S16" t="s">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="17">
+      <c r="E17" t="s">
+        <v>110</v>
+      </c>
+      <c r="F17">
+        <f>值集数据!$E$8</f>
+      </c>
+      <c r="G17" t="s">
+        <v>73</v>
+      </c>
+      <c r="H17" t="s">
+        <v>111</v>
+      </c>
+      <c r="I17" t="s">
+        <v>112</v>
+      </c>
+      <c r="J17" t="s">
+        <v>112</v>
+      </c>
+      <c r="M17" t="s">
         <v>77</v>
       </c>
-      <c r="U14" t="s">
-        <v>77</v>
-      </c>
-    </row>
-    <row r="15">
-      <c r="E15" t="s">
-        <v>96</v>
-      </c>
-      <c r="F15" t="s">
-        <v>97</v>
-      </c>
-      <c r="G15" t="s">
-        <v>74</v>
-      </c>
-      <c r="I15" t="s">
-        <v>98</v>
-      </c>
-      <c r="J15" t="s">
-        <v>98</v>
-      </c>
-      <c r="M15" t="s">
-        <v>76</v>
-      </c>
-      <c r="T15" t="s">
-        <v>77</v>
-      </c>
-      <c r="U15" t="s">
-        <v>77</v>
-      </c>
-    </row>
-    <row r="17">
-      <c r="A17" t="s">
-        <v>50</v>
-      </c>
-      <c r="B17" t="s">
-        <v>51</v>
-      </c>
-      <c r="C17" t="s">
-        <v>99</v>
-      </c>
-      <c r="D17" t="s" s="43">
-        <v>100</v>
-      </c>
-      <c r="E17" t="s" s="44">
-        <v>101</v>
-      </c>
-      <c r="F17" t="s" s="45">
-        <v>102</v>
-      </c>
-      <c r="G17" t="s">
-        <v>103</v>
-      </c>
-      <c r="H17" t="s" s="46">
-        <v>104</v>
-      </c>
-      <c r="I17" t="s">
-        <v>105</v>
-      </c>
-      <c r="J17" t="s">
-        <v>106</v>
-      </c>
-      <c r="K17" t="s">
-        <v>60</v>
-      </c>
-      <c r="L17" t="s">
-        <v>61</v>
-      </c>
-      <c r="M17" t="s" s="47">
-        <v>62</v>
-      </c>
-      <c r="N17" t="s">
-        <v>107</v>
-      </c>
       <c r="O17" t="s">
-        <v>108</v>
-      </c>
-      <c r="P17" t="s" s="48">
-        <v>109</v>
-      </c>
-      <c r="Q17" t="s">
-        <v>110</v>
-      </c>
-      <c r="R17" t="s">
-        <v>111</v>
+        <v>78</v>
       </c>
       <c r="S17" t="s">
-        <v>70</v>
+        <v>78</v>
       </c>
     </row>
     <row r="18">
       <c r="E18" t="s">
-        <v>112</v>
+        <v>110</v>
       </c>
       <c r="F18">
         <f>值集数据!$E$8</f>
@@ -3817,18 +3844,18 @@
         <v>114</v>
       </c>
       <c r="M18" t="s">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="O18" t="s">
-        <v>77</v>
+        <v>115</v>
       </c>
       <c r="S18" t="s">
-        <v>77</v>
+        <v>78</v>
       </c>
     </row>
     <row r="19">
       <c r="E19" t="s">
-        <v>112</v>
+        <v>110</v>
       </c>
       <c r="F19">
         <f>值集数据!$E$8</f>
@@ -3837,597 +3864,684 @@
         <v>73</v>
       </c>
       <c r="H19" t="s">
-        <v>115</v>
+        <v>116</v>
       </c>
       <c r="I19" t="s">
-        <v>116</v>
+        <v>117</v>
       </c>
       <c r="J19" t="s">
-        <v>116</v>
+        <v>117</v>
       </c>
       <c r="M19" t="s">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="O19" t="s">
-        <v>117</v>
+        <v>118</v>
       </c>
       <c r="S19" t="s">
-        <v>77</v>
+        <v>78</v>
       </c>
     </row>
     <row r="20">
       <c r="E20" t="s">
-        <v>112</v>
+        <v>110</v>
       </c>
       <c r="F20">
-        <f>值集数据!$E$9</f>
+        <f>值集数据!$E$8</f>
       </c>
       <c r="G20" t="s">
-        <v>79</v>
+        <v>73</v>
       </c>
       <c r="H20" t="s">
-        <v>118</v>
+        <v>119</v>
       </c>
       <c r="I20" t="s">
-        <v>119</v>
+        <v>120</v>
       </c>
       <c r="J20" t="s">
-        <v>119</v>
+        <v>120</v>
       </c>
       <c r="M20" t="s">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="O20" t="s">
-        <v>117</v>
+        <v>121</v>
       </c>
       <c r="S20" t="s">
-        <v>77</v>
+        <v>78</v>
       </c>
     </row>
     <row r="21">
       <c r="E21" t="s">
-        <v>112</v>
+        <v>110</v>
       </c>
       <c r="F21">
-        <f>值集数据!$E$9</f>
+        <f>值集数据!$E$8</f>
       </c>
       <c r="G21" t="s">
-        <v>79</v>
+        <v>73</v>
       </c>
       <c r="H21" t="s">
-        <v>120</v>
+        <v>122</v>
       </c>
       <c r="I21" t="s">
-        <v>121</v>
+        <v>123</v>
       </c>
       <c r="J21" t="s">
-        <v>121</v>
+        <v>123</v>
       </c>
       <c r="M21" t="s">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="O21" t="s">
-        <v>77</v>
+        <v>124</v>
       </c>
       <c r="S21" t="s">
-        <v>77</v>
+        <v>78</v>
       </c>
     </row>
     <row r="22">
       <c r="E22" t="s">
-        <v>112</v>
+        <v>110</v>
       </c>
       <c r="F22">
-        <f>值集数据!$E$10</f>
+        <f>值集数据!$E$9</f>
       </c>
       <c r="G22" t="s">
-        <v>82</v>
+        <v>80</v>
       </c>
       <c r="H22" t="s">
-        <v>122</v>
+        <v>125</v>
       </c>
       <c r="I22" t="s">
-        <v>123</v>
+        <v>126</v>
       </c>
       <c r="J22" t="s">
-        <v>123</v>
+        <v>126</v>
       </c>
       <c r="M22" t="s">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="O22" t="s">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="S22" t="s">
-        <v>77</v>
+        <v>78</v>
       </c>
     </row>
     <row r="23">
       <c r="E23" t="s">
-        <v>112</v>
+        <v>110</v>
       </c>
       <c r="F23">
-        <f>值集数据!$E$10</f>
+        <f>值集数据!$E$9</f>
       </c>
       <c r="G23" t="s">
-        <v>82</v>
+        <v>80</v>
       </c>
       <c r="H23" t="s">
-        <v>124</v>
+        <v>127</v>
       </c>
       <c r="I23" t="s">
-        <v>125</v>
+        <v>128</v>
       </c>
       <c r="J23" t="s">
-        <v>125</v>
+        <v>128</v>
       </c>
       <c r="M23" t="s">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="O23" t="s">
-        <v>117</v>
+        <v>115</v>
       </c>
       <c r="S23" t="s">
-        <v>77</v>
+        <v>78</v>
       </c>
     </row>
     <row r="24">
       <c r="E24" t="s">
-        <v>112</v>
+        <v>110</v>
       </c>
       <c r="F24">
         <f>值集数据!$E$10</f>
       </c>
       <c r="G24" t="s">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="H24" t="s">
-        <v>126</v>
+        <v>129</v>
       </c>
       <c r="I24" t="s">
-        <v>127</v>
+        <v>130</v>
       </c>
       <c r="J24" t="s">
-        <v>127</v>
+        <v>130</v>
       </c>
       <c r="M24" t="s">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="O24" t="s">
-        <v>117</v>
+        <v>78</v>
       </c>
       <c r="S24" t="s">
-        <v>77</v>
+        <v>78</v>
       </c>
     </row>
     <row r="25">
       <c r="E25" t="s">
-        <v>112</v>
+        <v>110</v>
       </c>
       <c r="F25">
-        <f>值集数据!$E$11</f>
+        <f>值集数据!$E$10</f>
       </c>
       <c r="G25" t="s">
-        <v>85</v>
+        <v>83</v>
       </c>
       <c r="H25" t="s">
-        <v>128</v>
+        <v>131</v>
       </c>
       <c r="I25" t="s">
-        <v>129</v>
+        <v>132</v>
       </c>
       <c r="J25" t="s">
-        <v>129</v>
+        <v>132</v>
       </c>
       <c r="M25" t="s">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="O25" t="s">
-        <v>77</v>
+        <v>115</v>
       </c>
       <c r="S25" t="s">
-        <v>77</v>
+        <v>78</v>
       </c>
     </row>
     <row r="26">
       <c r="E26" t="s">
-        <v>112</v>
+        <v>110</v>
       </c>
       <c r="F26">
-        <f>值集数据!$E$11</f>
+        <f>值集数据!$E$10</f>
       </c>
       <c r="G26" t="s">
-        <v>85</v>
+        <v>83</v>
       </c>
       <c r="H26" t="s">
-        <v>130</v>
+        <v>133</v>
       </c>
       <c r="I26" t="s">
-        <v>131</v>
+        <v>134</v>
       </c>
       <c r="J26" t="s">
-        <v>131</v>
+        <v>134</v>
       </c>
       <c r="M26" t="s">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="O26" t="s">
-        <v>117</v>
+        <v>118</v>
       </c>
       <c r="S26" t="s">
-        <v>77</v>
+        <v>78</v>
       </c>
     </row>
     <row r="27">
       <c r="E27" t="s">
-        <v>112</v>
+        <v>110</v>
       </c>
       <c r="F27">
-        <f>值集数据!$E$12</f>
+        <f>值集数据!$E$11</f>
       </c>
       <c r="G27" t="s">
-        <v>88</v>
+        <v>86</v>
       </c>
       <c r="H27" t="s">
-        <v>128</v>
+        <v>135</v>
       </c>
       <c r="I27" t="s">
-        <v>132</v>
+        <v>136</v>
       </c>
       <c r="J27" t="s">
-        <v>132</v>
+        <v>136</v>
       </c>
       <c r="M27" t="s">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="O27" t="s">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="S27" t="s">
-        <v>77</v>
+        <v>78</v>
       </c>
     </row>
     <row r="28">
       <c r="E28" t="s">
-        <v>112</v>
+        <v>110</v>
       </c>
       <c r="F28">
         <f>值集数据!$E$12</f>
       </c>
       <c r="G28" t="s">
-        <v>88</v>
+        <v>89</v>
       </c>
       <c r="H28" t="s">
-        <v>130</v>
+        <v>137</v>
       </c>
       <c r="I28" t="s">
-        <v>133</v>
+        <v>138</v>
       </c>
       <c r="J28" t="s">
-        <v>133</v>
+        <v>138</v>
       </c>
       <c r="M28" t="s">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="O28" t="s">
-        <v>117</v>
+        <v>78</v>
       </c>
       <c r="S28" t="s">
-        <v>77</v>
+        <v>78</v>
       </c>
     </row>
     <row r="29">
       <c r="E29" t="s">
-        <v>112</v>
+        <v>110</v>
       </c>
       <c r="F29">
-        <f>值集数据!$E$13</f>
+        <f>值集数据!$E$12</f>
       </c>
       <c r="G29" t="s">
-        <v>91</v>
+        <v>89</v>
       </c>
       <c r="H29" t="s">
-        <v>134</v>
+        <v>139</v>
       </c>
       <c r="I29" t="s">
-        <v>134</v>
+        <v>140</v>
       </c>
       <c r="J29" t="s">
-        <v>134</v>
+        <v>140</v>
       </c>
       <c r="M29" t="s">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="O29" t="s">
-        <v>77</v>
+        <v>115</v>
       </c>
       <c r="S29" t="s">
-        <v>77</v>
+        <v>78</v>
       </c>
     </row>
     <row r="30">
       <c r="E30" t="s">
-        <v>112</v>
+        <v>110</v>
       </c>
       <c r="F30">
-        <f>值集数据!$E$13</f>
+        <f>值集数据!$E$12</f>
       </c>
       <c r="G30" t="s">
-        <v>91</v>
+        <v>89</v>
       </c>
       <c r="H30" t="s">
-        <v>135</v>
+        <v>141</v>
       </c>
       <c r="I30" t="s">
-        <v>135</v>
+        <v>142</v>
       </c>
       <c r="J30" t="s">
-        <v>135</v>
+        <v>142</v>
       </c>
       <c r="M30" t="s">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="O30" t="s">
-        <v>117</v>
+        <v>118</v>
       </c>
       <c r="S30" t="s">
-        <v>77</v>
+        <v>78</v>
       </c>
     </row>
     <row r="31">
       <c r="E31" t="s">
-        <v>112</v>
+        <v>110</v>
       </c>
       <c r="F31">
-        <f>值集数据!$E$14</f>
+        <f>值集数据!$E$12</f>
       </c>
       <c r="G31" t="s">
-        <v>94</v>
+        <v>89</v>
       </c>
       <c r="H31" t="s">
-        <v>128</v>
+        <v>143</v>
       </c>
       <c r="I31" t="s">
-        <v>136</v>
+        <v>144</v>
       </c>
       <c r="J31" t="s">
-        <v>136</v>
+        <v>144</v>
       </c>
       <c r="M31" t="s">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="O31" t="s">
-        <v>77</v>
+        <v>121</v>
       </c>
       <c r="S31" t="s">
-        <v>77</v>
+        <v>78</v>
       </c>
     </row>
     <row r="32">
       <c r="E32" t="s">
-        <v>112</v>
+        <v>110</v>
       </c>
       <c r="F32">
-        <f>值集数据!$E$14</f>
+        <f>值集数据!$E$12</f>
       </c>
       <c r="G32" t="s">
-        <v>94</v>
+        <v>89</v>
       </c>
       <c r="H32" t="s">
-        <v>130</v>
+        <v>145</v>
       </c>
       <c r="I32" t="s">
-        <v>137</v>
+        <v>146</v>
       </c>
       <c r="J32" t="s">
-        <v>137</v>
+        <v>146</v>
       </c>
       <c r="M32" t="s">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="O32" t="s">
-        <v>117</v>
+        <v>124</v>
       </c>
       <c r="S32" t="s">
-        <v>77</v>
+        <v>78</v>
       </c>
     </row>
     <row r="33">
       <c r="E33" t="s">
-        <v>112</v>
+        <v>110</v>
       </c>
       <c r="F33">
-        <f>值集数据!$E$15</f>
+        <f>值集数据!$E$13</f>
       </c>
       <c r="G33" t="s">
-        <v>97</v>
+        <v>92</v>
       </c>
       <c r="H33" t="s">
-        <v>138</v>
+        <v>147</v>
       </c>
       <c r="I33" t="s">
-        <v>139</v>
+        <v>148</v>
       </c>
       <c r="J33" t="s">
-        <v>139</v>
+        <v>148</v>
       </c>
       <c r="M33" t="s">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="O33" t="s">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="S33" t="s">
-        <v>77</v>
+        <v>78</v>
       </c>
     </row>
     <row r="34">
       <c r="E34" t="s">
-        <v>112</v>
+        <v>110</v>
       </c>
       <c r="F34">
-        <f>值集数据!$E$15</f>
+        <f>值集数据!$E$13</f>
       </c>
       <c r="G34" t="s">
-        <v>97</v>
+        <v>92</v>
       </c>
       <c r="H34" t="s">
-        <v>140</v>
+        <v>116</v>
       </c>
       <c r="I34" t="s">
-        <v>141</v>
+        <v>149</v>
       </c>
       <c r="J34" t="s">
-        <v>141</v>
+        <v>149</v>
       </c>
       <c r="M34" t="s">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="O34" t="s">
-        <v>117</v>
+        <v>115</v>
       </c>
       <c r="S34" t="s">
-        <v>77</v>
+        <v>78</v>
       </c>
     </row>
     <row r="35">
       <c r="E35" t="s">
-        <v>112</v>
+        <v>110</v>
       </c>
       <c r="F35">
-        <f>值集数据!$E$15</f>
+        <f>值集数据!$E$13</f>
       </c>
       <c r="G35" t="s">
-        <v>97</v>
+        <v>92</v>
       </c>
       <c r="H35" t="s">
-        <v>142</v>
+        <v>119</v>
       </c>
       <c r="I35" t="s">
-        <v>143</v>
+        <v>150</v>
       </c>
       <c r="J35" t="s">
-        <v>143</v>
+        <v>150</v>
       </c>
       <c r="M35" t="s">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="O35" t="s">
-        <v>144</v>
+        <v>118</v>
       </c>
       <c r="S35" t="s">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="36">
+      <c r="E36" t="s">
+        <v>110</v>
+      </c>
+      <c r="F36">
+        <f>值集数据!$E$14</f>
+      </c>
+      <c r="G36" t="s">
+        <v>95</v>
+      </c>
+      <c r="H36" t="s">
+        <v>147</v>
+      </c>
+      <c r="I36" t="s">
+        <v>148</v>
+      </c>
+      <c r="J36" t="s">
+        <v>148</v>
+      </c>
+      <c r="M36" t="s">
         <v>77</v>
       </c>
+      <c r="O36" t="s">
+        <v>78</v>
+      </c>
+      <c r="S36" t="s">
+        <v>78</v>
+      </c>
     </row>
     <row r="37">
-      <c r="A37" t="s">
+      <c r="E37" t="s">
+        <v>110</v>
+      </c>
+      <c r="F37">
+        <f>值集数据!$E$14</f>
+      </c>
+      <c r="G37" t="s">
+        <v>95</v>
+      </c>
+      <c r="H37" t="s">
+        <v>116</v>
+      </c>
+      <c r="I37" t="s">
+        <v>149</v>
+      </c>
+      <c r="J37" t="s">
+        <v>149</v>
+      </c>
+      <c r="M37" t="s">
+        <v>77</v>
+      </c>
+      <c r="O37" t="s">
+        <v>115</v>
+      </c>
+      <c r="S37" t="s">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="38">
+      <c r="E38" t="s">
+        <v>110</v>
+      </c>
+      <c r="F38">
+        <f>值集数据!$E$14</f>
+      </c>
+      <c r="G38" t="s">
+        <v>95</v>
+      </c>
+      <c r="H38" t="s">
+        <v>119</v>
+      </c>
+      <c r="I38" t="s">
+        <v>150</v>
+      </c>
+      <c r="J38" t="s">
+        <v>150</v>
+      </c>
+      <c r="M38" t="s">
+        <v>77</v>
+      </c>
+      <c r="O38" t="s">
+        <v>118</v>
+      </c>
+      <c r="S38" t="s">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="40">
+      <c r="A40" t="s">
         <v>50</v>
       </c>
-      <c r="B37" t="s">
+      <c r="B40" t="s">
         <v>51</v>
       </c>
-      <c r="C37" t="s">
-        <v>145</v>
-      </c>
-      <c r="D37" t="s" s="49">
-        <v>146</v>
-      </c>
-      <c r="E37" t="s" s="50">
-        <v>147</v>
-      </c>
-      <c r="F37" t="s" s="51">
-        <v>148</v>
-      </c>
-      <c r="G37" t="s">
-        <v>149</v>
-      </c>
-      <c r="H37" t="s">
-        <v>150</v>
-      </c>
-      <c r="I37" t="s" s="52">
+      <c r="C40" t="s">
         <v>151</v>
       </c>
-      <c r="J37" t="s" s="53">
+      <c r="D40" t="s" s="49">
+        <v>152</v>
+      </c>
+      <c r="E40" t="s" s="50">
+        <v>153</v>
+      </c>
+      <c r="F40" t="s" s="51">
+        <v>154</v>
+      </c>
+      <c r="G40" t="s">
+        <v>155</v>
+      </c>
+      <c r="H40" t="s">
+        <v>156</v>
+      </c>
+      <c r="I40" t="s" s="52">
+        <v>157</v>
+      </c>
+      <c r="J40" t="s" s="53">
         <v>62</v>
       </c>
-      <c r="K37" t="s">
+      <c r="K40" t="s">
         <v>67</v>
       </c>
-      <c r="L37" t="s">
+      <c r="L40" t="s">
         <v>68</v>
       </c>
-      <c r="M37" t="s">
-        <v>152</v>
-      </c>
-      <c r="N37" t="s">
-        <v>153</v>
-      </c>
-      <c r="O37" t="s">
-        <v>154</v>
-      </c>
-      <c r="P37" t="s">
-        <v>155</v>
-      </c>
-      <c r="Q37" t="s">
-        <v>156</v>
-      </c>
-      <c r="R37" t="s">
+      <c r="M40" t="s">
+        <v>158</v>
+      </c>
+      <c r="N40" t="s">
+        <v>159</v>
+      </c>
+      <c r="O40" t="s">
+        <v>160</v>
+      </c>
+      <c r="P40" t="s">
+        <v>161</v>
+      </c>
+      <c r="Q40" t="s">
+        <v>162</v>
+      </c>
+      <c r="R40" t="s">
+        <v>163</v>
+      </c>
+      <c r="S40" t="s">
+        <v>164</v>
+      </c>
+      <c r="T40" t="s">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="42">
+      <c r="A42" t="s">
+        <v>50</v>
+      </c>
+      <c r="B42" t="s">
+        <v>51</v>
+      </c>
+      <c r="C42" t="s">
+        <v>165</v>
+      </c>
+      <c r="D42" t="s" s="54">
+        <v>166</v>
+      </c>
+      <c r="E42" t="s" s="55">
+        <v>167</v>
+      </c>
+      <c r="F42" t="s" s="56">
+        <v>168</v>
+      </c>
+      <c r="G42" t="s">
+        <v>169</v>
+      </c>
+      <c r="H42" t="s" s="57">
         <v>157</v>
       </c>
-      <c r="S37" t="s">
-        <v>158</v>
-      </c>
-      <c r="T37" t="s">
-        <v>70</v>
-      </c>
-    </row>
-    <row r="39">
-      <c r="A39" t="s">
-        <v>50</v>
-      </c>
-      <c r="B39" t="s">
-        <v>51</v>
-      </c>
-      <c r="C39" t="s">
-        <v>159</v>
-      </c>
-      <c r="D39" t="s" s="54">
-        <v>160</v>
-      </c>
-      <c r="E39" t="s" s="55">
-        <v>161</v>
-      </c>
-      <c r="F39" t="s" s="56">
-        <v>162</v>
-      </c>
-      <c r="G39" t="s">
-        <v>163</v>
-      </c>
-      <c r="H39" t="s" s="57">
-        <v>151</v>
-      </c>
-      <c r="I39" t="s">
-        <v>164</v>
-      </c>
-      <c r="J39" t="s">
-        <v>165</v>
-      </c>
-      <c r="K39" t="s">
-        <v>108</v>
-      </c>
-      <c r="L39" t="s" s="58">
-        <v>166</v>
-      </c>
-      <c r="M39" t="s">
-        <v>167</v>
-      </c>
-      <c r="N39" t="s">
-        <v>168</v>
-      </c>
-      <c r="O39" t="s">
-        <v>169</v>
-      </c>
-      <c r="P39" t="s">
+      <c r="I42" t="s">
+        <v>170</v>
+      </c>
+      <c r="J42" t="s">
+        <v>171</v>
+      </c>
+      <c r="K42" t="s">
+        <v>106</v>
+      </c>
+      <c r="L42" t="s" s="58">
+        <v>172</v>
+      </c>
+      <c r="M42" t="s">
+        <v>173</v>
+      </c>
+      <c r="N42" t="s">
+        <v>174</v>
+      </c>
+      <c r="O42" t="s">
+        <v>175</v>
+      </c>
+      <c r="P42" t="s">
         <v>70</v>
       </c>
     </row>
